--- a/PolicyNumbers.xlsx
+++ b/PolicyNumbers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subramas\OneDrive - AA PLC\UiPath\Tiara_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUBRAMAS\OneDrive - AA PLC\UiPath\TIARA_CAARS_AUTO_v1.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C1D0C5-7391-4E08-B3FD-64E897AD8BA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C6C1D0C5-7391-4E08-B3FD-64E897AD8BA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{748760AF-279C-489B-9638-2E5FC1BF5073}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" xr2:uid="{885E61E9-0856-4F4A-AD28-52727DA52C0E}"/>
   </bookViews>
@@ -30,21 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Source System</t>
   </si>
   <si>
     <t>Policy Number</t>
-  </si>
-  <si>
-    <t>TIARA</t>
-  </si>
-  <si>
-    <t>6356011168295002</t>
-  </si>
-  <si>
-    <t>6356015502901725</t>
   </si>
   <si>
     <t>Cathie</t>
@@ -54,9 +45,6 @@
   </si>
   <si>
     <t>6356011590245002</t>
-  </si>
-  <si>
-    <t>6356018108206449</t>
   </si>
 </sst>
 </file>
@@ -409,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76F67E7-F66A-46F8-9FEF-590727AF45D2}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,10 +419,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,30 +430,6 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
